--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -817,16 +817,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D19">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>77.11598746081505</v>
+        <v>79.31034482758621</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>trimestre</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>recurrence_rate</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q1</t>
   </si>
   <si>
     <t>2021Q2</t>
@@ -443,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +471,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F2">
-        <v>54.90196078431373</v>
+        <v>41.75257731958763</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -497,16 +491,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F3">
-        <v>55.95238095238096</v>
+        <v>51.06382978723404</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -517,16 +511,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>41.75257731958763</v>
+        <v>60.19417475728155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,16 +531,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>51.06382978723404</v>
+        <v>60.74766355140186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,16 +551,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>54.85232067510548</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -577,16 +571,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E7">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>59.90783410138248</v>
+        <v>65.96858638743456</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,16 +591,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E8">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>54.85232067510548</v>
+        <v>70.62146892655367</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -617,16 +611,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D9">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>65.96858638743456</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -637,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D10">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F10">
-        <v>70.62146892655367</v>
+        <v>78.46153846153847</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,16 +651,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D11">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F11">
-        <v>86.66666666666667</v>
+        <v>79.1044776119403</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +671,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>78.46153846153847</v>
+        <v>85.11627906976744</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -697,16 +691,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D13">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>79.1044776119403</v>
+        <v>82.66666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -717,16 +711,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="D14">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F14">
-        <v>85.11627906976744</v>
+        <v>81.96078431372548</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -737,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>82.66666666666667</v>
+        <v>79.87220447284345</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -757,16 +751,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="E16">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F16">
-        <v>81.96078431372548</v>
+        <v>80.4416403785489</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -777,55 +771,15 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E17">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>79.87220447284345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>319</v>
-      </c>
-      <c r="D18">
-        <v>255</v>
-      </c>
-      <c r="E18">
-        <v>64</v>
-      </c>
-      <c r="F18">
-        <v>80.4416403785489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>298</v>
-      </c>
-      <c r="D19">
-        <v>253</v>
-      </c>
-      <c r="E19">
-        <v>45</v>
-      </c>
-      <c r="F19">
         <v>79.31034482758621</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>trimestre</t>
   </si>
@@ -34,6 +34,12 @@
     <t>recurrence_rate</t>
   </si>
   <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
     <t>2021Q2</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,16 +480,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>41.75257731958763</v>
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -491,16 +500,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="F3">
-        <v>51.06382978723404</v>
+        <v>55.29411764705883</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -511,16 +520,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F4">
-        <v>60.19417475728155</v>
+        <v>42.05128205128205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,16 +540,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F5">
-        <v>60.74766355140186</v>
+        <v>50.79365079365079</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -551,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F6">
-        <v>54.85232067510548</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -571,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F7">
-        <v>65.96858638743456</v>
+        <v>59.90783410138248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -591,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>70.62146892655367</v>
+        <v>54.85232067510548</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -611,16 +620,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>86.66666666666667</v>
+        <v>65.96858638743456</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -631,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D10">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>78.46153846153847</v>
+        <v>70.62146892655367</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -651,16 +660,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D11">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E11">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>79.1044776119403</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -671,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D12">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12">
-        <v>85.11627906976744</v>
+        <v>78.46153846153847</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -691,16 +700,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E13">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F13">
-        <v>82.66666666666667</v>
+        <v>79.1044776119403</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -711,16 +720,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="D14">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E14">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>81.96078431372548</v>
+        <v>85.11627906976744</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -731,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>79.87220447284345</v>
+        <v>82.66666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -751,16 +760,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D16">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="E16">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F16">
-        <v>80.4416403785489</v>
+        <v>81.96078431372548</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -771,16 +780,76 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D17">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E17">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>79.31034482758621</v>
+        <v>79.87220447284345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>319</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>80.4416403785489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>322</v>
+      </c>
+      <c r="D19">
+        <v>262</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>82.13166144200626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>164</v>
+      </c>
+      <c r="D20">
+        <v>146</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>45.3416149068323</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -820,16 +820,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D19">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>82.13166144200626</v>
+        <v>82.44514106583071</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D20">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>45.3416149068323</v>
+        <v>63.88888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -480,16 +480,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>53.84615384615385</v>
+        <v>54.90196078431373</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,16 +500,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3">
         <v>47</v>
       </c>
       <c r="E3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3">
-        <v>55.29411764705883</v>
+        <v>55.95238095238096</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,16 +520,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4">
-        <v>42.05128205128205</v>
+        <v>41.75257731958763</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,16 +540,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>50.79365079365079</v>
+        <v>50.53763440860215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -560,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>88</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>60.95238095238096</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7">
-        <v>59.90783410138248</v>
+        <v>59.72222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,7 +609,7 @@
         <v>61</v>
       </c>
       <c r="F8">
-        <v>54.85232067510548</v>
+        <v>55.31914893617022</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -620,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9">
         <v>126</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>65.96858638743456</v>
@@ -640,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>70.62146892655367</v>
+        <v>71.26436781609196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,16 +660,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11">
         <v>52</v>
       </c>
       <c r="F11">
-        <v>86.66666666666667</v>
+        <v>86.58536585365853</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12">
         <v>48</v>
       </c>
       <c r="F12">
-        <v>78.46153846153847</v>
+        <v>78.35051546391753</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -700,16 +700,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D13">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13">
         <v>56</v>
       </c>
       <c r="F13">
-        <v>79.1044776119403</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -720,16 +720,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>85.11627906976744</v>
+        <v>84.97652582159625</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15">
-        <v>82.66666666666667</v>
+        <v>81.53153153153153</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -760,16 +760,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E16">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16">
-        <v>81.96078431372548</v>
+        <v>82.5910931174089</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -780,16 +780,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E17">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17">
-        <v>79.87220447284345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -800,16 +800,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D18">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E18">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>80.4416403785489</v>
+        <v>79.61783439490446</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -820,16 +820,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="D19">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E19">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>82.44514106583071</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D20">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>63.88888888888889</v>
+        <v>67.76315789473685</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D20">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>67.76315789473685</v>
+        <v>73.02631578947368</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D20">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>73.02631578947368</v>
+        <v>74.3421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,13 +840,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D20">
         <v>226</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>74.3421052631579</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D20">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20">
-        <v>74.3421052631579</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D20">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20">
-        <v>75</v>
+        <v>75.32894736842105</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,13 +840,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D20">
         <v>229</v>
       </c>
       <c r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>75.32894736842105</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,13 +840,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D20">
         <v>229</v>
       </c>
       <c r="E20">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>75.32894736842105</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E20">
         <v>53</v>
       </c>
       <c r="F20">
-        <v>75.32894736842105</v>
+        <v>75.6578947368421</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D20">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E20">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F20">
-        <v>75.6578947368421</v>
+        <v>77.30263157894737</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D4">
         <v>81</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>41.75257731958763</v>
@@ -540,16 +540,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5">
-        <v>50.53763440860215</v>
+        <v>51.06382978723404</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -560,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>88</v>
       </c>
       <c r="F6">
-        <v>60.95238095238096</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7">
-        <v>59.72222222222222</v>
+        <v>59.90783410138248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,7 +609,7 @@
         <v>61</v>
       </c>
       <c r="F8">
-        <v>55.31914893617022</v>
+        <v>54.85232067510548</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -620,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>126</v>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>65.96858638743456</v>
@@ -640,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>71.26436781609196</v>
+        <v>70.62146892655367</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,16 +660,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>52</v>
       </c>
       <c r="F11">
-        <v>86.58536585365853</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12">
         <v>48</v>
       </c>
       <c r="F12">
-        <v>78.35051546391753</v>
+        <v>78.46153846153847</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -700,16 +700,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D13">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E13">
         <v>56</v>
       </c>
       <c r="F13">
-        <v>78.5</v>
+        <v>79.1044776119403</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -720,16 +720,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D14">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>84.97652582159625</v>
+        <v>85.11627906976744</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D15">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>81.53153153153153</v>
+        <v>82.66666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -760,16 +760,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D16">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E16">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F16">
-        <v>82.5910931174089</v>
+        <v>81.96078431372548</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -780,16 +780,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D17">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>79.87220447284345</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -800,16 +800,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F18">
-        <v>79.61783439490446</v>
+        <v>80.4416403785489</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -820,16 +820,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D19">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E19">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>82.44514106583071</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D20">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F20">
-        <v>77.30263157894737</v>
+        <v>79.25696594427245</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D20">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E20">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20">
-        <v>79.25696594427245</v>
+        <v>79.56656346749226</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D20">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E20">
         <v>64</v>
       </c>
       <c r="F20">
-        <v>79.56656346749226</v>
+        <v>79.87616099071208</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D20">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E20">
         <v>64</v>
       </c>
       <c r="F20">
-        <v>79.87616099071208</v>
+        <v>80.18575851393189</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D20">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>80.18575851393189</v>
+        <v>80.49535603715169</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,13 +840,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D20">
         <v>260</v>
       </c>
       <c r="E20">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>80.49535603715169</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,13 +840,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D20">
         <v>260</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>80.49535603715169</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -843,13 +843,13 @@
         <v>333</v>
       </c>
       <c r="D20">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20">
-        <v>80.49535603715169</v>
+        <v>80.80495356037152</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D20">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20">
-        <v>80.80495356037152</v>
+        <v>81.73374613003097</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D20">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E20">
         <v>73</v>
       </c>
       <c r="F20">
-        <v>81.73374613003097</v>
+        <v>82.04334365325077</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D20">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E20">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20">
-        <v>82.04334365325077</v>
+        <v>82.6625386996904</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -840,16 +840,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D20">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E20">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20">
-        <v>82.6625386996904</v>
+        <v>83.28173374613003</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>trimestre</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,16 +843,36 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D20">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E20">
         <v>78</v>
       </c>
       <c r="F20">
-        <v>83.28173374613003</v>
+        <v>83.59133126934985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.2873563218390804</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
-        <v>0.2873563218390804</v>
+        <v>3.160919540229886</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -843,13 +843,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D20">
         <v>270</v>
       </c>
       <c r="E20">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20">
         <v>83.59133126934985</v>
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>3.160919540229886</v>
+        <v>9.169054441260744</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>9.169054441260744</v>
+        <v>13.18051575931232</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>13.18051575931232</v>
+        <v>16.9054441260745</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>16.9054441260745</v>
+        <v>24.64183381088825</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>24.64183381088825</v>
+        <v>30.37249283667622</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D21">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>9</v>
       </c>
       <c r="F21">
-        <v>30.37249283667622</v>
+        <v>32.6647564469914</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D21">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>32.6647564469914</v>
+        <v>35.53008595988539</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D21">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>35.53008595988539</v>
+        <v>38.96848137535817</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D21">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>38.96848137535817</v>
+        <v>41.26074498567336</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D21">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>41.26074498567336</v>
+        <v>42.97994269340974</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D21">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>42.97994269340974</v>
+        <v>44.41260744985674</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D21">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>44.41260744985674</v>
+        <v>45.27220630372493</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D21">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>45.27220630372493</v>
+        <v>46.13180515759313</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D21">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>46.13180515759313</v>
+        <v>46.41833810888252</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D21">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21">
-        <v>46.41833810888252</v>
+        <v>48.42406876790831</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D21">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21">
-        <v>48.42406876790831</v>
+        <v>50.71633237822349</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D21">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>50.71633237822349</v>
+        <v>52.14899713467048</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,13 +863,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21">
         <v>182</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>52.14899713467048</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D21">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>52.14899713467048</v>
+        <v>53.29512893982808</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D21">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>53.29512893982808</v>
+        <v>55.01432664756447</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D21">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E21">
         <v>27</v>
       </c>
       <c r="F21">
-        <v>55.01432664756447</v>
+        <v>57.87965616045845</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D21">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E21">
         <v>27</v>
       </c>
       <c r="F21">
-        <v>57.87965616045845</v>
+        <v>59.31232091690545</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D21">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E21">
         <v>27</v>
       </c>
       <c r="F21">
-        <v>59.31232091690545</v>
+        <v>61.03151862464183</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D21">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>61.03151862464183</v>
+        <v>62.46418338108882</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D21">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E21">
         <v>28</v>
       </c>
       <c r="F21">
-        <v>62.46418338108882</v>
+        <v>64.18338108882521</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D21">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>64.18338108882521</v>
+        <v>65.32951289398281</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D21">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21">
-        <v>65.32951289398281</v>
+        <v>67.621776504298</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,13 +863,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21">
         <v>236</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>67.621776504298</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D21">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>67.621776504298</v>
+        <v>69.05444126074498</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D21">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>69.05444126074498</v>
+        <v>69.62750716332378</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D21">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>69.62750716332378</v>
+        <v>71.06017191977078</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D21">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E21">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F21">
-        <v>71.06017191977078</v>
+        <v>71.63323782234957</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D21">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>71.63323782234957</v>
+        <v>71.91977077363897</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_trimestral.xlsx
@@ -863,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D21">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>71.91977077363897</v>
+        <v>73.92550143266476</v>
       </c>
     </row>
   </sheetData>
